--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P19_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P19_trail5 Features.xlsx
@@ -2685,7 +2685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2696,29 +2696,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="18" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2739,115 +2737,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2864,72 +2852,66 @@
         <v>1.378319629016743e-06</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.746100596695783</v>
+        <v>9.247542909752333e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>14.85595600864737</v>
+        <v>5.827195115350676e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.247542909752333e-06</v>
+        <v>-0.1029162659919814</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.827195115350676e-06</v>
+        <v>0.3278145565532835</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1029162659919814</v>
+        <v>0.1177641033974721</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3278145565532835</v>
+        <v>1.678230146144148</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1177641033974721</v>
+        <v>1.610479181449653</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.589113486961877</v>
+        <v>3.448052003170557</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.610479181449653</v>
+        <v>4.984619737332861e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.448052003170557</v>
+        <v>9594286.437331105</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.984619737332861e-14</v>
+        <v>1.168594428613381e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>9594286.437331105</v>
+        <v>4.588359029193053</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.168594428613381e-05</v>
+        <v>0.0002101662558015529</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>4.588359029193053</v>
+        <v>10.22507398902224</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002101662558015529</v>
+        <v>1.453596920246418</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.22507398902224</v>
+        <v>0.02197333139652635</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.453596920246418</v>
+        <v>2.715741348720027</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02197333139652635</v>
+        <v>0.9501458723204311</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.715741348720027</v>
+        <v>1.819995954995313</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9501458723204311</v>
+        <v>4</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.819995954995313</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1391680536753304</v>
       </c>
     </row>
@@ -2944,72 +2926,66 @@
         <v>1.000319508955878e-06</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.61497825439147</v>
+        <v>6.720736213494682e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>14.12031845758917</v>
+        <v>5.70834597229984e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.720736213494682e-06</v>
+        <v>-0.09841963683196341</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.70834597229984e-06</v>
+        <v>0.3271896321794391</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.09841963683196341</v>
+        <v>0.1164421541593895</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3271896321794391</v>
+        <v>1.700681647245979</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1164421541593895</v>
+        <v>1.467560746565585</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.616567215801292</v>
+        <v>3.234964512802731</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.467560746565585</v>
+        <v>5.66292233459269e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.234964512802731</v>
+        <v>8247862.979041504</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.66292233459269e-14</v>
+        <v>1.367717955450248e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>8247862.979041504</v>
+        <v>3.852329978286769</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.367717955450248e-05</v>
+        <v>0.0001809899624594954</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>3.852329978286769</v>
+        <v>10.32006412512916</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001809899624594954</v>
+        <v>1.266774235619419</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.32006412512916</v>
+        <v>0.01927610492652782</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.266774235619419</v>
+        <v>2.767900581576549</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01927610492652782</v>
+        <v>0.951130500802294</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.767900581576549</v>
+        <v>1.789119050843075</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.951130500802294</v>
+        <v>4</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.789119050843075</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1456046862292953</v>
       </c>
     </row>
@@ -3024,72 +3000,66 @@
         <v>7.340563710928645e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.352491004917906</v>
+        <v>4.893761295328181e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>12.61735909458079</v>
+        <v>5.62648150253899e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.893761295328181e-06</v>
+        <v>-0.09161315573936372</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.62648150253899e-06</v>
+        <v>0.3224926214551893</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.09161315573936372</v>
+        <v>0.1121100696223845</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3224926214551893</v>
+        <v>1.696928678600895</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1121100696223845</v>
+        <v>1.454078347360531</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.615823151832896</v>
+        <v>3.246010896580063</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.454078347360531</v>
+        <v>5.624445338443978e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.246010896580063</v>
+        <v>8040315.753880815</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.624445338443978e-14</v>
+        <v>1.392108768700636e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>8040315.753880815</v>
+        <v>3.636017034726445</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.392108768700636e-05</v>
+        <v>0.0001774667808523572</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>3.636017034726445</v>
+        <v>11.41313888576144</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001774667808523572</v>
+        <v>1.080898470405992</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.41313888576144</v>
+        <v>0.02311677659504893</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.080898470405992</v>
+        <v>2.579735260003711</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02311677659504893</v>
+        <v>0.9500211105027715</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.579735260003711</v>
+        <v>1.819338666773018</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9500211105027715</v>
+        <v>4</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.819338666773018</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1514329902185392</v>
       </c>
     </row>
@@ -3104,72 +3074,66 @@
         <v>5.51194800503747e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2.89019266326274</v>
+        <v>3.583974231622186e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>9.968321899052878</v>
+        <v>5.571030657087122e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.583974231622186e-06</v>
+        <v>-0.08171822473990516</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.571030657087122e-06</v>
+        <v>0.3122295868800004</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.08171822473990516</v>
+        <v>0.103903755700374</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3122295868800004</v>
+        <v>1.704054603673905</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.103903755700374</v>
+        <v>1.55953001632232</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.626855967442721</v>
+        <v>3.25449657400792</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.55953001632232</v>
+        <v>5.595153553068701e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.25449657400792</v>
+        <v>8143768.464089762</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.595153553068701e-14</v>
+        <v>1.375102044429773e-05</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>8143768.464089762</v>
+        <v>3.710759818252166</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.375102044429773e-05</v>
+        <v>0.0001866418008655583</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>3.710759818252166</v>
+        <v>11.98141386941982</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001866418008655583</v>
+        <v>1.054821763425903</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.98141386941982</v>
+        <v>0.02679322902579474</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.054821763425903</v>
+        <v>2.422055374097258</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02679322902579474</v>
+        <v>0.9535448149573658</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.422055374097258</v>
+        <v>1.804129969948727</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9535448149573658</v>
+        <v>4</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.804129969948727</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1499060026653829</v>
       </c>
     </row>
@@ -3184,72 +3148,66 @@
         <v>4.314253988913371e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2.230740767582216</v>
+        <v>2.639091050309755e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>6.293245825950283</v>
+        <v>5.534418371361429e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.639091050309755e-06</v>
+        <v>-0.0677152063906316</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.534418371361429e-06</v>
+        <v>0.2908123338611519</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.0677152063906316</v>
+        <v>0.08893703312916351</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2908123338611519</v>
+        <v>1.70155716767442</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.08893703312916351</v>
+        <v>1.620804680172395</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.628013047925855</v>
+        <v>3.176646459510806</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.620804680172395</v>
+        <v>5.87275496297866e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.176646459510806</v>
+        <v>7850796.326506867</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.87275496297866e-14</v>
+        <v>1.424992367489482e-05</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>7850796.326506867</v>
+        <v>3.619672695282693</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.424992367489482e-05</v>
+        <v>0.0001948083733180184</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>3.619672695282693</v>
+        <v>11.111315125125</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001948083733180184</v>
+        <v>1.159764184467999</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.111315125125</v>
+        <v>0.02405129965908243</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.159764184467999</v>
+        <v>2.56583087403634</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02405129965908243</v>
+        <v>0.9522303843145691</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.56583087403634</v>
+        <v>1.754377151568152</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9522303843145691</v>
+        <v>1</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.754377151568152</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1392674578560013</v>
       </c>
     </row>
@@ -3264,72 +3222,66 @@
         <v>3.587691088452901e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.549467943211928</v>
+        <v>1.972758448638275e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2.805915725795087</v>
+        <v>5.511095805675611e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.972758448638275e-06</v>
+        <v>-0.05072280491032869</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5.511095805675611e-06</v>
+        <v>0.2608214005392819</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.05072280491032869</v>
+        <v>0.07045045873372288</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2608214005392819</v>
+        <v>1.657750620650926</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.07045045873372288</v>
+        <v>1.577325978017684</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.578057725130641</v>
+        <v>3.170297594424213</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.577325978017684</v>
+        <v>5.896300173984461e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.170297594424213</v>
+        <v>7944141.832118204</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.896300173984461e-14</v>
+        <v>1.391375469295419e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>7944141.832118204</v>
+        <v>3.721119039870737</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.391375469295419e-05</v>
+        <v>0.0002214952878298403</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>3.721119039870737</v>
+        <v>9.758714431738969</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0002214952878298403</v>
+        <v>1.529976049812884</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.758714431738969</v>
+        <v>0.02109355162851163</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.529976049812884</v>
+        <v>2.649988439029358</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02109355162851163</v>
+        <v>0.9502377433839704</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.649988439029358</v>
+        <v>1.801531990053696</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9502377433839704</v>
+        <v>2</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.801531990053696</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1282631824427228</v>
       </c>
     </row>
@@ -3706,7 +3658,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.306684373945005</v>
+        <v>1.321796260514179</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.56423260036637</v>
@@ -3795,7 +3747,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.325160908005145</v>
+        <v>1.342390390031561</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.564243356581841</v>
@@ -3884,7 +3836,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.303497983013634</v>
+        <v>1.316015523863916</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.619209706505022</v>
@@ -3973,7 +3925,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.312375104316555</v>
+        <v>1.32697063120446</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.554824879728721</v>
@@ -4062,7 +4014,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.325263315919535</v>
+        <v>1.343711254929844</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.189017889224206</v>
@@ -4151,7 +4103,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.343876002422084</v>
+        <v>1.367792482221553</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.42578531855888</v>
@@ -4240,7 +4192,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.354991954079039</v>
+        <v>1.379559323407196</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.366873554940641</v>
@@ -4329,7 +4281,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.354969840934257</v>
+        <v>1.379229654928213</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.409568245851979</v>
@@ -4418,7 +4370,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.346431328696494</v>
+        <v>1.367469426788938</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.582330051836498</v>
@@ -4507,7 +4459,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.362041075947297</v>
+        <v>1.38639757460119</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.321801115914828</v>
@@ -4596,7 +4548,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.34379323431339</v>
+        <v>1.368260542543331</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.58739514421851</v>
@@ -4685,7 +4637,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.374141492615157</v>
+        <v>1.40182620067335</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.189006035067267</v>
@@ -4774,7 +4726,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.379084405647575</v>
+        <v>1.406597304161223</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.509591091266786</v>
@@ -4863,7 +4815,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.40654435498908</v>
+        <v>1.438386203661336</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.438615318174546</v>
@@ -4952,7 +4904,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.404965675845734</v>
+        <v>1.434479022552428</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.28022234428486</v>
@@ -5041,7 +4993,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.409465307684773</v>
+        <v>1.445255200556326</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.512376357510167</v>
@@ -5130,7 +5082,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.408363264804122</v>
+        <v>1.440205798086608</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.596093884472063</v>
@@ -5219,7 +5171,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.406910139197032</v>
+        <v>1.439211211728141</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.58265626627123</v>
@@ -5308,7 +5260,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.402721581525891</v>
+        <v>1.43813077903217</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.555606376725688</v>
@@ -5397,7 +5349,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.437053897304371</v>
+        <v>1.469664233001755</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.562900102691657</v>
@@ -5486,7 +5438,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.394162543318888</v>
+        <v>1.421784023342912</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.606561391251091</v>
@@ -5575,7 +5527,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.408753285816771</v>
+        <v>1.434379901256747</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.52654035413784</v>
@@ -5664,7 +5616,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.387277300466782</v>
+        <v>1.407714708935945</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.622510134817001</v>
@@ -5753,7 +5705,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.415719461968554</v>
+        <v>1.437501808174409</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.621669126075672</v>
@@ -5842,7 +5794,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.401016518054697</v>
+        <v>1.423235591162859</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.63805766858612</v>
@@ -5931,7 +5883,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.428941482943346</v>
+        <v>1.451090320009571</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.61396343560207</v>
@@ -6020,7 +5972,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.42974570652552</v>
+        <v>1.453084110531726</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.636760619053357</v>
@@ -6109,7 +6061,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.409282298722187</v>
+        <v>1.430832879764244</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.568254410918962</v>
@@ -6198,7 +6150,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.411062265932163</v>
+        <v>1.425589585670283</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.443784676335507</v>
@@ -6287,7 +6239,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.411385200123024</v>
+        <v>1.424615715295005</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.477699946757596</v>
@@ -6376,7 +6328,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.40210852766626</v>
+        <v>1.414493879494793</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.500771570376164</v>
@@ -6465,7 +6417,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.42726796645285</v>
+        <v>1.440012329983192</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.525896365949962</v>
@@ -6554,7 +6506,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.464243329564151</v>
+        <v>1.477093096458547</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.275471424967784</v>
@@ -6643,7 +6595,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.464016092103816</v>
+        <v>1.475728254499949</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.416240823846857</v>
@@ -6732,7 +6684,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.459363970064185</v>
+        <v>1.474186528258223</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.504311376103979</v>
@@ -6821,7 +6773,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.496854223753426</v>
+        <v>1.514106189540406</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.364852719605328</v>
@@ -6910,7 +6862,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.443761866219272</v>
+        <v>1.456114303028846</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.438084207969118</v>
@@ -6999,7 +6951,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.475797999846802</v>
+        <v>1.490310782250535</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.347998498827105</v>
@@ -7088,7 +7040,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.48142726758083</v>
+        <v>1.499207394041899</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.376184182654033</v>
@@ -7177,7 +7129,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.494491203295655</v>
+        <v>1.509903339463721</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.455885248050707</v>
@@ -7266,7 +7218,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.468813620870025</v>
+        <v>1.484628843446458</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.38970797414341</v>
@@ -7355,7 +7307,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.430582911448041</v>
+        <v>1.443160244707484</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.272578363956454</v>
@@ -7444,7 +7396,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.45562880741809</v>
+        <v>1.465632051205</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.522708815648761</v>
@@ -7533,7 +7485,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.411696030447313</v>
+        <v>1.427139275112395</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.532725471428533</v>
@@ -7622,7 +7574,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.432206804255706</v>
+        <v>1.452663180170243</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.412997542660972</v>
@@ -7711,7 +7663,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.39523841802317</v>
+        <v>1.412159202740369</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.28820007979911</v>
@@ -7800,7 +7752,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.363114340491214</v>
+        <v>1.377998693302866</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.367064756505794</v>
@@ -7889,7 +7841,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.331767999615998</v>
+        <v>1.3446988104907</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.282442570478367</v>
@@ -7978,7 +7930,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.318969079160597</v>
+        <v>1.329684265463395</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.291040293034455</v>
@@ -8067,7 +8019,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.313445680606735</v>
+        <v>1.316666123759502</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.333580534980085</v>
@@ -8156,7 +8108,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.284714032369115</v>
+        <v>1.289339879443078</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.239330512943946</v>
@@ -8442,7 +8394,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.366684768413131</v>
+        <v>1.368213992020774</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.488399892808385</v>
@@ -8531,7 +8483,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.378588554726902</v>
+        <v>1.375788638612286</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.634887690629652</v>
@@ -8620,7 +8572,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.385856532597292</v>
+        <v>1.379316862334901</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.477445118872291</v>
@@ -8709,7 +8661,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.392890609165222</v>
+        <v>1.39252915336794</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.679102975149231</v>
@@ -8798,7 +8750,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.403727166420856</v>
+        <v>1.403152874071375</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.353281172352566</v>
@@ -8887,7 +8839,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.421179587004949</v>
+        <v>1.423172741086896</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.588258879135355</v>
@@ -8976,7 +8928,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.442700093980318</v>
+        <v>1.440524150492398</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.34239340036096</v>
@@ -9065,7 +9017,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.433365496075952</v>
+        <v>1.43527349524542</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.607551040975604</v>
@@ -9154,7 +9106,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.427041065074333</v>
+        <v>1.424660439669619</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.757740892033765</v>
@@ -9243,7 +9195,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.43545337533042</v>
+        <v>1.435481417452303</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.464593149154822</v>
@@ -9332,7 +9284,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.431294885027288</v>
+        <v>1.425351676116249</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.510054097031928</v>
@@ -9421,7 +9373,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.439239189038192</v>
+        <v>1.438489187332882</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.379865533313914</v>
@@ -9510,7 +9462,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.434478670046186</v>
+        <v>1.433239572064345</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.769582435428395</v>
@@ -9599,7 +9551,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.437482536115784</v>
+        <v>1.435878585578093</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.737792338712803</v>
@@ -9688,7 +9640,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.458642757617743</v>
+        <v>1.44966552634459</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.694346407717346</v>
@@ -9777,7 +9729,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.466698118366349</v>
+        <v>1.467340796257016</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.620800832966368</v>
@@ -9866,7 +9818,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.452431137849756</v>
+        <v>1.451704846476072</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.611433393594251</v>
@@ -9955,7 +9907,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.443080645677463</v>
+        <v>1.43995292582944</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.175607261638858</v>
@@ -10044,7 +9996,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.437617501156705</v>
+        <v>1.433694893506245</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.279632904547831</v>
@@ -10133,7 +10085,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.449310401715676</v>
+        <v>1.440008053327643</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.33592994369007</v>
@@ -10222,7 +10174,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.431425075501957</v>
+        <v>1.424392505822323</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.385885617940612</v>
@@ -10311,7 +10263,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.43586732875703</v>
+        <v>1.426859146196938</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.222941842295828</v>
@@ -10400,7 +10352,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.431464582038349</v>
+        <v>1.417188703767913</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.384096824985868</v>
@@ -10489,7 +10441,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.44772187951107</v>
+        <v>1.433655092596524</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.359569792809381</v>
@@ -10578,7 +10530,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.434007653460651</v>
+        <v>1.422190930702788</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.266235420274816</v>
@@ -10667,7 +10619,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.438535353851919</v>
+        <v>1.427035879979679</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.364883002949333</v>
@@ -10756,7 +10708,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.442019545875902</v>
+        <v>1.429532685907446</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.31344565748761</v>
@@ -10845,7 +10797,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.425078718498019</v>
+        <v>1.415452714593109</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.204399860424468</v>
@@ -10934,7 +10886,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.441696304796938</v>
+        <v>1.42816587246486</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.298429291520929</v>
@@ -11023,7 +10975,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.430863924491732</v>
+        <v>1.416713877983981</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.294368793093085</v>
@@ -11112,7 +11064,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.406469385082093</v>
+        <v>1.395858917416223</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.340300555710755</v>
@@ -11201,7 +11153,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.426881620502799</v>
+        <v>1.417932001122052</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.293161123861607</v>
@@ -11290,7 +11242,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.452539125566694</v>
+        <v>1.442078374256195</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.419736991874819</v>
@@ -11379,7 +11331,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.45733915572521</v>
+        <v>1.449910082713875</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.630694797294973</v>
@@ -11468,7 +11420,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.455626020370962</v>
+        <v>1.451995502424665</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.575683272202978</v>
@@ -11557,7 +11509,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.466575974726697</v>
+        <v>1.459161471532373</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.549890680056139</v>
@@ -11646,7 +11598,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.437413638993273</v>
+        <v>1.431131374229607</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.291744672120414</v>
@@ -11735,7 +11687,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.443580758792096</v>
+        <v>1.440379441931619</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.266356092732507</v>
@@ -11824,7 +11776,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.448267974111015</v>
+        <v>1.446511829612034</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.316821768823977</v>
@@ -11913,7 +11865,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.463212012101118</v>
+        <v>1.458575899866651</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.453693522515215</v>
@@ -12002,7 +11954,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.455899506530443</v>
+        <v>1.453437209757499</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.241746183707762</v>
@@ -12091,7 +12043,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.449079825573909</v>
+        <v>1.443811168000894</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.113876727646526</v>
@@ -12180,7 +12132,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.458019160934985</v>
+        <v>1.451528257367953</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.279491407556882</v>
@@ -12269,7 +12221,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.446925811512</v>
+        <v>1.44357720390339</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.295373685970818</v>
@@ -12358,7 +12310,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.481135049991009</v>
+        <v>1.478356706309932</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.323442110127778</v>
@@ -12447,7 +12399,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.49248036296811</v>
+        <v>1.480597692347169</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.24444137636995</v>
@@ -12536,7 +12488,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.47789101757277</v>
+        <v>1.464685779953017</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.242926139921453</v>
@@ -12625,7 +12577,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.462217294682678</v>
+        <v>1.448344418855202</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.345417356023079</v>
@@ -12714,7 +12666,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.456325325371875</v>
+        <v>1.439562479751234</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.312335589936861</v>
@@ -12803,7 +12755,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.453758724898168</v>
+        <v>1.436487622262895</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.248004141390501</v>
@@ -12892,7 +12844,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.448048559331648</v>
+        <v>1.431678148221325</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.228981850322579</v>
@@ -13178,7 +13130,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.745399806723299</v>
+        <v>1.758051488526425</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.155395624476991</v>
@@ -13267,7 +13219,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.744305158297906</v>
+        <v>1.759216470031768</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.121825152705139</v>
@@ -13356,7 +13308,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.730990054613904</v>
+        <v>1.749420905745964</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.715073286909198</v>
@@ -13445,7 +13397,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.733880035560102</v>
+        <v>1.751837923443612</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.855413879071568</v>
@@ -13534,7 +13486,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.743867572767555</v>
+        <v>1.763225120876385</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.39188950098506</v>
@@ -13623,7 +13575,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.766712196419506</v>
+        <v>1.789910851129059</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.626309215685591</v>
@@ -13712,7 +13664,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.775390086267981</v>
+        <v>1.798573866801215</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.522146048192746</v>
@@ -13801,7 +13753,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.777287078763898</v>
+        <v>1.80472348303403</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.107079503072629</v>
@@ -13890,7 +13842,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.766553343486416</v>
+        <v>1.786970558443389</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.070540318972243</v>
@@ -13979,7 +13931,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.77217049246483</v>
+        <v>1.791006397539232</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.567373049113375</v>
@@ -14068,7 +14020,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.766968849613685</v>
+        <v>1.785963271310698</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.740393700160312</v>
@@ -14157,7 +14109,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.777623933084441</v>
+        <v>1.795457537252655</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.76506295723324</v>
@@ -14246,7 +14198,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.780821835367683</v>
+        <v>1.796706810713987</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.701665436656765</v>
@@ -14335,7 +14287,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.793673016603877</v>
+        <v>1.805815036413945</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.147292359096797</v>
@@ -14424,7 +14376,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.790247554019462</v>
+        <v>1.798388244657008</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.227371911890335</v>
@@ -14513,7 +14465,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.796405138810538</v>
+        <v>1.80171108235289</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.685323002666796</v>
@@ -14602,7 +14554,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.801350533767853</v>
+        <v>1.806383529885434</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.777153486934033</v>
@@ -14691,7 +14643,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.800597587061382</v>
+        <v>1.809087080970412</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.052825358618517</v>
@@ -14780,7 +14732,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.803508737594098</v>
+        <v>1.813506179596221</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.192927498855702</v>
@@ -14869,7 +14821,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.81171604035437</v>
+        <v>1.812902446096525</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.057918914587709</v>
@@ -14958,7 +14910,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.789374442892434</v>
+        <v>1.788225481181138</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.160199389494508</v>
@@ -15047,7 +14999,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.790104579740583</v>
+        <v>1.785920556820294</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.172097679889454</v>
@@ -15136,7 +15088,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.788268944787493</v>
+        <v>1.779581276181541</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.803770850936627</v>
@@ -15225,7 +15177,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.801234233385028</v>
+        <v>1.790872578376888</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.274829652485222</v>
@@ -15314,7 +15266,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.803550895848397</v>
+        <v>1.798655738921441</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.135049158123123</v>
@@ -15403,7 +15355,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.818629038343959</v>
+        <v>1.813181189244507</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.779388311421382</v>
@@ -15492,7 +15444,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.82130547483876</v>
+        <v>1.816803381004895</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.210019631630184</v>
@@ -15581,7 +15533,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.805803035365702</v>
+        <v>1.809118137532214</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.91692386640759</v>
@@ -15670,7 +15622,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.802365094028676</v>
+        <v>1.798630634278547</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.290727315365188</v>
@@ -15759,7 +15711,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.796044255876855</v>
+        <v>1.792325937224824</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.209902225448466</v>
@@ -15848,7 +15800,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.793033821143578</v>
+        <v>1.792848000050445</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.702294717230906</v>
@@ -15937,7 +15889,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.8025862974162</v>
+        <v>1.794481324054156</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.16317242313592</v>
@@ -16026,7 +15978,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.815776145460318</v>
+        <v>1.804719267806153</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.031402125264206</v>
@@ -16115,7 +16067,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.815221885131098</v>
+        <v>1.799128402305261</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.421460592660528</v>
@@ -16204,7 +16156,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.820133904534015</v>
+        <v>1.809458373285838</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.110099661108412</v>
@@ -16293,7 +16245,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.831753302509729</v>
+        <v>1.824279525913517</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.029329995892625</v>
@@ -16382,7 +16334,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.810101162617178</v>
+        <v>1.804428589947701</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.110498412647717</v>
@@ -16471,7 +16423,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.81415261040703</v>
+        <v>1.810224476911064</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.668883738612972</v>
@@ -16560,7 +16512,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.817699113489738</v>
+        <v>1.81736600780444</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.998842732321411</v>
@@ -16649,7 +16601,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.818269933402024</v>
+        <v>1.811596050911905</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.94669822406111</v>
@@ -16738,7 +16690,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.802240368464383</v>
+        <v>1.795211637267639</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.120386466283605</v>
@@ -16827,7 +16779,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.789477350198291</v>
+        <v>1.777924256411988</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.047886597687894</v>
@@ -16916,7 +16868,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.799150766993882</v>
+        <v>1.781739596387638</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.862105773745298</v>
@@ -17005,7 +16957,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.777234169213841</v>
+        <v>1.769665901330132</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.815783835366656</v>
@@ -17094,7 +17046,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.793036139127016</v>
+        <v>1.782895452603983</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.79872428569738</v>
@@ -17183,7 +17135,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.788013408140211</v>
+        <v>1.777207832989508</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.517504027454912</v>
@@ -17272,7 +17224,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.770346143289567</v>
+        <v>1.76041703472286</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.856914272514307</v>
@@ -17361,7 +17313,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.756578248720541</v>
+        <v>1.744841946937807</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.881145047060074</v>
@@ -17450,7 +17402,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.745434143855078</v>
+        <v>1.732932976453399</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.916085096654465</v>
@@ -17539,7 +17491,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.737588405180174</v>
+        <v>1.722042100992614</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.991771007639332</v>
@@ -17628,7 +17580,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.721811090446379</v>
+        <v>1.703023770192868</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.782832916690614</v>
@@ -17914,7 +17866,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.716450393765065</v>
+        <v>1.674493172386536</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.649038670207165</v>
@@ -18003,7 +17955,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.718194881191188</v>
+        <v>1.675855258256816</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.82300655977904</v>
@@ -18092,7 +18044,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.719098833041224</v>
+        <v>1.672829279254205</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.564380220036608</v>
@@ -18181,7 +18133,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.722976366366467</v>
+        <v>1.677462787329916</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.853089232940704</v>
@@ -18270,7 +18222,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.735076817526687</v>
+        <v>1.693406333700799</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.70446595657498</v>
@@ -18359,7 +18311,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.743095056312541</v>
+        <v>1.708675547784328</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.985680724137063</v>
@@ -18448,7 +18400,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.744078178094238</v>
+        <v>1.711597785534757</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.5109861752525</v>
@@ -18537,7 +18489,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.743318718471321</v>
+        <v>1.72011851741465</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.546681011336476</v>
@@ -18626,7 +18578,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.737336189455811</v>
+        <v>1.716541059242377</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.759236868125791</v>
@@ -18715,7 +18667,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.743384981014026</v>
+        <v>1.721384525114565</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.357902444353369</v>
@@ -18804,7 +18756,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.737625938575532</v>
+        <v>1.714337048704718</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.910653631846284</v>
@@ -18893,7 +18845,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.744607209195757</v>
+        <v>1.718717787819075</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.874509126454117</v>
@@ -18982,7 +18934,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.742606108118654</v>
+        <v>1.724554012534066</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.705237543350592</v>
@@ -19071,7 +19023,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.751486715920169</v>
+        <v>1.738420999036239</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.83205097346923</v>
@@ -19160,7 +19112,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.763835805096981</v>
+        <v>1.754067676033275</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.566018336979764</v>
@@ -19249,7 +19201,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.776640672798531</v>
+        <v>1.768861170857946</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.429896064650609</v>
@@ -19338,7 +19290,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.776009451493584</v>
+        <v>1.768211558901031</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.78023216104661</v>
@@ -19427,7 +19379,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.768675524619424</v>
+        <v>1.763603659141407</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.967444186573176</v>
@@ -19516,7 +19468,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.773044572709751</v>
+        <v>1.769279509393666</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.980238786838665</v>
@@ -19605,7 +19557,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.776290874545015</v>
+        <v>1.768911985616089</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.609161408411147</v>
@@ -19694,7 +19646,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.764993813256482</v>
+        <v>1.752400770423111</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.516951287672895</v>
@@ -19783,7 +19735,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.777066828770857</v>
+        <v>1.767310230683194</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.019936698899059</v>
@@ -19872,7 +19824,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.773589624672347</v>
+        <v>1.760553645633366</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.94690196181487</v>
@@ -19961,7 +19913,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.782980703133411</v>
+        <v>1.768065640044586</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.727980513830579</v>
@@ -20050,7 +20002,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.782288102208321</v>
+        <v>1.773884817525164</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.967152253053995</v>
@@ -20139,7 +20091,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.777529931028286</v>
+        <v>1.771597423711486</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.94421818294289</v>
@@ -20228,7 +20180,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.784243046266443</v>
+        <v>1.77748451925404</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.172144916832973</v>
@@ -20317,7 +20269,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.786167043766801</v>
+        <v>1.775023184369919</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.958512287061835</v>
@@ -20406,7 +20358,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.787071542216289</v>
+        <v>1.773461636620439</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.890388908928676</v>
@@ -20495,7 +20447,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.770876128159596</v>
+        <v>1.756040981425093</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.981217499521982</v>
@@ -20584,7 +20536,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.770427221344683</v>
+        <v>1.747711932180876</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.559555264936596</v>
@@ -20673,7 +20625,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.770136712217029</v>
+        <v>1.747694729656794</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.336471884934125</v>
@@ -20762,7 +20714,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.777600075659122</v>
+        <v>1.754004264039149</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.808863355923067</v>
@@ -20851,7 +20803,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.783075223296487</v>
+        <v>1.755529274392581</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.536256119032662</v>
@@ -20940,7 +20892,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.787642444544784</v>
+        <v>1.761982015837626</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.029818522793162</v>
@@ -21029,7 +20981,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.787441328293368</v>
+        <v>1.765564514919824</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.330059972682102</v>
@@ -21118,7 +21070,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.769029804038816</v>
+        <v>1.741551804138469</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.56043431345926</v>
@@ -21207,7 +21159,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.768814523375825</v>
+        <v>1.740589891554218</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.399803458322695</v>
@@ -21296,7 +21248,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.777508280551262</v>
+        <v>1.748979423170568</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.33735256616184</v>
@@ -21385,7 +21337,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.774894652344898</v>
+        <v>1.741373783923606</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.986743189734441</v>
@@ -21474,7 +21426,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.775467159826913</v>
+        <v>1.733238187471798</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.95872963110426</v>
@@ -21563,7 +21515,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.764168970691746</v>
+        <v>1.716866292510872</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.194494396763198</v>
@@ -21652,7 +21604,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.754059074275025</v>
+        <v>1.70557691129217</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.153286834362324</v>
@@ -21741,7 +21693,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.740903664177851</v>
+        <v>1.687267097724199</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.353197775598706</v>
@@ -21830,7 +21782,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.752736959881805</v>
+        <v>1.6978114396811</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.865072274726266</v>
@@ -21919,7 +21871,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.740946157676474</v>
+        <v>1.693392873767998</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.145162026269636</v>
@@ -22008,7 +21960,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.72465271947541</v>
+        <v>1.678359804807007</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.133029149240902</v>
@@ -22097,7 +22049,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.717034774716934</v>
+        <v>1.675939634514865</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.259074216049845</v>
@@ -22186,7 +22138,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.711677527014102</v>
+        <v>1.668033218373368</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.619671096136409</v>
@@ -22275,7 +22227,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.694170186439491</v>
+        <v>1.648793622670211</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.393434723727415</v>
@@ -22364,7 +22316,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.686492123980154</v>
+        <v>1.640887997701305</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.631355021237912</v>
@@ -22650,7 +22602,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.448808244748131</v>
+        <v>1.433069617484902</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.635803156614332</v>
@@ -22739,7 +22691,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.455520534372424</v>
+        <v>1.438473379191592</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.642405372638819</v>
@@ -22828,7 +22780,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.460202853611918</v>
+        <v>1.440532622587206</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.429439671437351</v>
@@ -22917,7 +22869,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.499089654808345</v>
+        <v>1.471938824601692</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.662284420144113</v>
@@ -23006,7 +22958,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.512074728642139</v>
+        <v>1.48806089630844</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.464398155548984</v>
@@ -23095,7 +23047,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.53465792224266</v>
+        <v>1.513346759919068</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.674982740138141</v>
@@ -23184,7 +23136,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.539367678904795</v>
+        <v>1.518534890303345</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.393597427897888</v>
@@ -23273,7 +23225,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.563410793545415</v>
+        <v>1.541954795678618</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.250765239177771</v>
@@ -23362,7 +23314,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.561503542794519</v>
+        <v>1.543657575947561</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.826225569138789</v>
@@ -23451,7 +23403,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.564491828050011</v>
+        <v>1.552360772358046</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.660492002818952</v>
@@ -23540,7 +23492,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.556048888133427</v>
+        <v>1.544227680934903</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.474433833853739</v>
@@ -23629,7 +23581,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.558042111229345</v>
+        <v>1.545413469353994</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.472678950410756</v>
@@ -23718,7 +23670,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.551126242181847</v>
+        <v>1.533665695140523</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.449666141994273</v>
@@ -23807,7 +23759,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.538545573267204</v>
+        <v>1.525414269107715</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.85833836385513</v>
@@ -23896,7 +23848,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.545199779530807</v>
+        <v>1.528297696142481</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.579277882186061</v>
@@ -23985,7 +23937,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.54021253424605</v>
+        <v>1.517582487345745</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.931788626809114</v>
@@ -24074,7 +24026,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.525131831819862</v>
+        <v>1.501933041696653</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.749163931448596</v>
@@ -24163,7 +24115,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.525835127415702</v>
+        <v>1.503929286256433</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.723015888440245</v>
@@ -24252,7 +24204,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.531247665087724</v>
+        <v>1.506869388146489</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.723139373291403</v>
@@ -24341,7 +24293,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.521495082996366</v>
+        <v>1.492565318629142</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.805558052323892</v>
@@ -24430,7 +24382,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.517645972360517</v>
+        <v>1.487010903820686</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.748458557557552</v>
@@ -24519,7 +24471,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.531355290831709</v>
+        <v>1.494426332638136</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.642978616760853</v>
@@ -24608,7 +24560,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.532630819851819</v>
+        <v>1.496000909270295</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.623502552889771</v>
@@ -24697,7 +24649,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.548410027257247</v>
+        <v>1.50967139702441</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.695445681125834</v>
@@ -24786,7 +24738,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.54237645921834</v>
+        <v>1.506170645277051</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.498402551158854</v>
@@ -24875,7 +24827,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.55481724253343</v>
+        <v>1.516083153971918</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.547380418176792</v>
@@ -24964,7 +24916,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.558640828166724</v>
+        <v>1.52156499785995</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.773352806144167</v>
@@ -25053,7 +25005,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.552671819802085</v>
+        <v>1.514246255558817</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.836274396296212</v>
@@ -25142,7 +25094,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.567656407608449</v>
+        <v>1.521412973641852</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.731622231613822</v>
@@ -25231,7 +25183,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.559338017205192</v>
+        <v>1.512196128607392</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.813577422799945</v>
@@ -25320,7 +25272,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.543882664772608</v>
+        <v>1.508469651349433</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.866992908797087</v>
@@ -25409,7 +25361,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.557860625223848</v>
+        <v>1.52199987146257</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.866753252081377</v>
@@ -25498,7 +25450,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.571288196914504</v>
+        <v>1.536766087340913</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.765319969537843</v>
@@ -25587,7 +25539,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.574332055360464</v>
+        <v>1.537408637101742</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.814071296278017</v>
@@ -25676,7 +25628,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.580297383020449</v>
+        <v>1.545464761487924</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.830587591705419</v>
@@ -25765,7 +25717,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.588888944949702</v>
+        <v>1.553247497104327</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.553555978191743</v>
@@ -25854,7 +25806,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.566463870578275</v>
+        <v>1.533838209936677</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.798439295114447</v>
@@ -25943,7 +25895,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.566261616721899</v>
+        <v>1.531139256812418</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.816530963932513</v>
@@ -26032,7 +25984,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.560335005931607</v>
+        <v>1.526175709481823</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.69446515679829</v>
@@ -26121,7 +26073,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.577374823105839</v>
+        <v>1.537986389843855</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.586159025251808</v>
@@ -26210,7 +26162,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.572247421462837</v>
+        <v>1.533789902121231</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.508337203501989</v>
@@ -26299,7 +26251,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.573707539734759</v>
+        <v>1.530293589324062</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.504860455769089</v>
@@ -26388,7 +26340,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.567688149793635</v>
+        <v>1.526269050296663</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.739355490616738</v>
@@ -26477,7 +26429,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.55017256014471</v>
+        <v>1.522749404908913</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.487149106406467</v>
@@ -26566,7 +26518,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.570860655882308</v>
+        <v>1.539460784941868</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.553530269766358</v>
@@ -26655,7 +26607,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.559935680325653</v>
+        <v>1.531993756857805</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.599103220971336</v>
@@ -26744,7 +26696,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.540189272226642</v>
+        <v>1.512012193532029</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.734851934348599</v>
@@ -26833,7 +26785,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.521542681224394</v>
+        <v>1.498408164274608</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.820969565556795</v>
@@ -26922,7 +26874,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.507848477720387</v>
+        <v>1.486902175110024</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.641353832726914</v>
@@ -27011,7 +26963,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.506537416894705</v>
+        <v>1.488227283047329</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.796204385436652</v>
@@ -27100,7 +27052,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.50585705006314</v>
+        <v>1.486645813697089</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.47332850134602</v>
@@ -27386,7 +27338,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.324113409886829</v>
+        <v>1.334444133139977</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.571745158118445</v>
@@ -27475,7 +27427,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.346853449310361</v>
+        <v>1.361515772906294</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.507205808819774</v>
@@ -27564,7 +27516,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.327953880044365</v>
+        <v>1.342383009562565</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.583652105912131</v>
@@ -27653,7 +27605,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.34102825852462</v>
+        <v>1.356342824715318</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.544490454297537</v>
@@ -27742,7 +27694,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.354499403622341</v>
+        <v>1.372308131572661</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.255184077528782</v>
@@ -27831,7 +27783,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.371366644400275</v>
+        <v>1.393190911806979</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.453694335824677</v>
@@ -27920,7 +27872,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.387711302001686</v>
+        <v>1.409277646928315</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.438828684981768</v>
@@ -28009,7 +27961,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.391310686813754</v>
+        <v>1.417864226874521</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.440119922004482</v>
@@ -28098,7 +28050,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.381591316406121</v>
+        <v>1.406224128404716</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.647711711898573</v>
@@ -28187,7 +28139,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.397299157708912</v>
+        <v>1.427812553357676</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.409514856037054</v>
@@ -28276,7 +28228,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.373034049361355</v>
+        <v>1.400827630168595</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.60758341171932</v>
@@ -28365,7 +28317,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.405590168829193</v>
+        <v>1.434795546973015</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.265543001705713</v>
@@ -28454,7 +28406,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.409479660807161</v>
+        <v>1.440875928412792</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.552638508702188</v>
@@ -28543,7 +28495,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.428823721725773</v>
+        <v>1.463677047014631</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.45019737828413</v>
@@ -28632,7 +28584,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.428469005635185</v>
+        <v>1.462886514909475</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.330865361510132</v>
@@ -28721,7 +28673,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.438932576366361</v>
+        <v>1.479640977182272</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.640904695244709</v>
@@ -28810,7 +28762,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.44811020349103</v>
+        <v>1.486432366437614</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.513130206394819</v>
@@ -28899,7 +28851,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.453365837699369</v>
+        <v>1.488075013091571</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.490152060905191</v>
@@ -28988,7 +28940,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.450491546812145</v>
+        <v>1.490491947288741</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.493295579847262</v>
@@ -29077,7 +29029,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.493182049311707</v>
+        <v>1.53536410484827</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.560113791149875</v>
@@ -29166,7 +29118,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.453398658453139</v>
+        <v>1.490020067116381</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.547989858213733</v>
@@ -29255,7 +29207,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.469654050424215</v>
+        <v>1.509690758009304</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.478614059283438</v>
@@ -29344,7 +29296,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.437884554642318</v>
+        <v>1.470713407610058</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.499076333640412</v>
@@ -29433,7 +29385,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.468902309373612</v>
+        <v>1.504804273271056</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.443967933096274</v>
@@ -29522,7 +29474,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.452740001011017</v>
+        <v>1.488568750434959</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.642513348328859</v>
@@ -29611,7 +29563,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.482343353886761</v>
+        <v>1.517406777332596</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.542570114889747</v>
@@ -29700,7 +29652,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.486301155622632</v>
+        <v>1.522323863711248</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.534437500110613</v>
@@ -29789,7 +29741,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.469289519127013</v>
+        <v>1.500313462955881</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.571322206669305</v>
@@ -29878,7 +29830,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.481871133370303</v>
+        <v>1.511227896260542</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.412245865136856</v>
@@ -29967,7 +29919,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.485543551594955</v>
+        <v>1.512812111206262</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.625268300917162</v>
@@ -30056,7 +30008,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.487338718501332</v>
+        <v>1.512132234252718</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.669846438202422</v>
@@ -30145,7 +30097,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.50847323425879</v>
+        <v>1.534281962538119</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.768644742669887</v>
@@ -30234,7 +30186,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.542476438815922</v>
+        <v>1.569148467821362</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.456560662876339</v>
@@ -30323,7 +30275,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.549743735777177</v>
+        <v>1.57620096979639</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.744946205932674</v>
@@ -30412,7 +30364,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.536215055756187</v>
+        <v>1.563525340976946</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.560180719694245</v>
@@ -30501,7 +30453,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.570255449773021</v>
+        <v>1.600225561946982</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.465425462496724</v>
@@ -30590,7 +30542,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.504887660557962</v>
+        <v>1.528659307218344</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.509980764969288</v>
@@ -30679,7 +30631,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.546301232750432</v>
+        <v>1.571531386356899</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.430334836296927</v>
@@ -30768,7 +30720,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.551712061058338</v>
+        <v>1.577602035428294</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.528021245515311</v>
@@ -30857,7 +30809,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.565030324439974</v>
+        <v>1.586717724286326</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.491741343875081</v>
@@ -30946,7 +30898,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.535726346368174</v>
+        <v>1.558476614664147</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.570847081499613</v>
@@ -31035,7 +30987,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.486773546918889</v>
+        <v>1.505305023047797</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.393985717919239</v>
@@ -31124,7 +31076,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.511914804774629</v>
+        <v>1.527261427219673</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.536560098398166</v>
@@ -31213,7 +31165,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.463542558277044</v>
+        <v>1.483229462660443</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.557307572484148</v>
@@ -31302,7 +31254,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.479882362219371</v>
+        <v>1.503158935570677</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.430018337222713</v>
@@ -31391,7 +31343,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.451952090577566</v>
+        <v>1.473482885719225</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.673685384913978</v>
@@ -31480,7 +31432,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.41182209404524</v>
+        <v>1.430468458302879</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.50249428817829</v>
@@ -31569,7 +31521,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.399919278778073</v>
+        <v>1.417705923939315</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.476331470590543</v>
@@ -31658,7 +31610,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.377806440313554</v>
+        <v>1.389602028239692</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.586195042069009</v>
@@ -31747,7 +31699,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.373841422792213</v>
+        <v>1.379024396237832</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.418309693890693</v>
@@ -31836,7 +31788,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.343685358784362</v>
+        <v>1.35168069436416</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.556831930745687</v>
